--- a/imageCreationExcel/back/112/112_10.xlsx
+++ b/imageCreationExcel/back/112/112_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.80738286758862</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.114433269333845</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.04689219870818</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_9_brightness7.807_contrast1.114_gamma1.047.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.709679815599176</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.152439433552274</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.7552502647536768</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_3_brightness7.71_contrast1.152_sharpness0.755.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.089835058416581</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7749613391867017</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8208957467370479</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_8_contrast1.09_gamma0.775_sharpness0.821.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.17955329163783</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7845178168094081</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8232977102030243</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_8_contrast1.18_gamma0.785_sharpness0.823.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9951265035875151</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7233694287153317</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.314338525114688</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_0_contrast0.995_gamma0.723_sharpness0.314.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16.64799015256551</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.123487248731667</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.2571637948149006</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_E_brightness16.648_contrast1.123_sharpness0.257.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,30 +747,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9960777377107235</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9220625665474222</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8321787739094675</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_C_contrast0.996_gamma0.922_sharpness0.832.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,15 +789,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.172822999892527</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9428677090608901</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>14.2515008777629</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_P_contrast1.173_sharpness0.943_equalization14.252.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.053810683924169</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8371928217355202</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.08862954559188921</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_B_contrast1.054_gamma0.837_sharpness0.089.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16.88135519478763</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9560475363993343</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8186675232036025</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_7_brightness16.881_contrast0.956_gamma0.819.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9353988494114627</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7853341336587666</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8.271369428952195</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_contrast0.935_sharpness0.785_equalization8.271.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9069362191840061</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.4441435489375537</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>22.99017327760725</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_9_gamma0.907_sharpness0.444_equalization22.99.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.092985276376922</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9173473474313625</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>20.69816765303221</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_S_gamma1.093_sharpness0.917_equalization20.698.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,15 +1041,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8826977608366684</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.660648829667565</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>18.1084972000709</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_2_contrast0.883_sharpness0.661_equalization18.108.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.051233157580098</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5743289563778963</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8.896124883404909</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_gamma1.051_sharpness0.574_equalization8.896.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.126319292480523</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6079763128157349</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.5207006409360388</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_0_brightness2.126_gamma0.608_sharpness0.521.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.907851372288349</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8263074579167324</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.3947279867540572</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_T_brightness6.908_contrast0.826_sharpness0.395.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.064358951783239</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.051488259987549</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8566620798612437</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_S_contrast1.064_gamma1.051_sharpness0.857.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22.70500693034026</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.014185242853816</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.001157917122892</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_9_brightness22.705_contrast1.014_gamma1.001.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28.44688523139991</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5709181600230551</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.7033325312396677</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_E_brightness28.447_gamma0.571_sharpness0.703.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,24 +1326,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.6215889720337644</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.403471298225874</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6.172480631202535</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_0_gamma0.622_sharpness0.403_equalization6.172.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,15 +1377,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21.21615223344958</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.12757513333935</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.5005486008802273</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_T_brightness21.216_contrast1.128_sharpness0.501.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12.8216003330454</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8318345444185257</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.017506087300069</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_I_brightness12.822_contrast0.832_gamma1.018.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8283527022519751</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.013685480743573</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.3741393178816045</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_3_contrast0.828_gamma1.014_sharpness0.374.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29.17838982992935</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5752258219618793</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.9098428910803056</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_T_brightness29.178_gamma0.575_sharpness0.91.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1541,19 +1541,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.6968795503720175</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.2420001560598757</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>27.60466766364382</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_C_gamma0.697_sharpness0.242_equalization27.605.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,30 +1587,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.186561590162806</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7548109604315912</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.7628127452529117</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_contrast1.187_gamma0.755_sharpness0.763.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9124387934732086</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9817053807500297</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10.05478912230542</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_7_gamma0.912_sharpness0.982_equalization10.055.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,30 +1671,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9525701394357828</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.2473232319859785</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>30.28474907437294</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_contrast0.953_sharpness0.247_equalization30.285.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.091846046289848</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.7270764420585989</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>8.904028019839393</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_8_contrast1.092_sharpness0.727_equalization8.904.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.025395537252074</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9853767193872325</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9.225517534501762</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_E_contrast1.025_sharpness0.985_equalization9.226.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9379200446334094</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.237335013106736</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>27.60302721569825</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_contrast0.938_sharpness0.237_equalization27.603.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20.28412553999506</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.00456524522994</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.92573947624457</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_brightness20.284_contrast1.005_gamma0.926.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23.24719074233539</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5432656048873927</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.3013542883652578</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_8_brightness23.247_gamma0.543_sharpness0.301.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,15 +1923,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20.46858126573242</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8355074380558933</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.7628108764369506</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_brightness20.469_contrast0.836_sharpness0.763.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9.961393815669181</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5571840221922272</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.3785386119303902</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_S_brightness9.961_gamma0.557_sharpness0.379.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,24 +1998,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5514512063757432</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5360074569368332</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4.827444344852509</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_I_gamma0.551_sharpness0.536_equalization4.827.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.628887461596706</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8962709702969937</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.974535143886298</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_C_brightness1.629_contrast0.896_gamma0.975.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.079406667971198</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.6923798469493619</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6.979070711890485</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_3_gamma1.079_sharpness0.692_equalization6.979.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,30 +2133,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>16.21007308858875</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.058531745534959</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.7367716189184683</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_8_brightness16.21_contrast1.059_gamma0.737.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5.887541030672746</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5922117633883754</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.6274885611998019</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_S_brightness5.888_gamma0.592_sharpness0.627.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24.87835696992318</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.866975429995597</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.7984078239068769</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_3_brightness24.878_contrast0.867_sharpness0.798.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2250,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8704561536301293</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6588203099526335</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8.860978445899942</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_E_contrast0.87_gamma0.659_equalization8.861.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6848383567665142</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.443683880320806</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5.240611047546385</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_7_gamma0.685_sharpness0.444_equalization5.241.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9628633595313881</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.023103142879235</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.4513074606029821</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_S_contrast0.963_gamma1.023_sharpness0.451.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,15 +2385,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>23.37275031813679</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8023149407803972</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.1677121917783412</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_P_brightness23.373_gamma0.802_sharpness0.168.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8967692106709905</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.628407654311928</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8.609597551684622</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_C_contrast0.897_sharpness0.628_equalization8.61.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.05953464780631</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.403413637228619</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>26.39064151740059</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_1_gamma1.06_sharpness0.403_equalization26.391.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
